--- a/Cleaning_files/Currency.xlsx
+++ b/Cleaning_files/Currency.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Sales Project\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Sales Project\Cleaning_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A4EF1C7-AD91-45C4-B185-35A76CCD9C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CA330-B75A-4FFE-B844-4A899E9A5F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{90C97F57-393E-40BF-A063-F819A666CF50}"/>
   </bookViews>
@@ -804,18 +804,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,7 +1132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD86C0-1A85-4CF5-9205-1B8630403A39}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
